--- a/TestData/Shippers.xlsx
+++ b/TestData/Shippers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="AddShippers" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
   <si>
     <t>NAME</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Add</t>
   </si>
   <si>
-    <t>User Invited successfully</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -112,6 +109,54 @@
   </si>
   <si>
     <t>EditShippers_TC002</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>record not found</t>
+  </si>
+  <si>
+    <t>Shipper cancelled successfully</t>
+  </si>
+  <si>
+    <t>AutoShipeer004@gmail.com</t>
+  </si>
+  <si>
+    <t>CancelShippers_TC004</t>
+  </si>
+  <si>
+    <t>InActivateShippers_TC005</t>
+  </si>
+  <si>
+    <t>ActivateShippers_TC006</t>
+  </si>
+  <si>
+    <t>InvalidShippers_TC007</t>
+  </si>
+  <si>
+    <t>Unable to add shipper</t>
+  </si>
+  <si>
+    <t>InvalidShippers_TC007(2)</t>
+  </si>
+  <si>
+    <t>Carrier is required</t>
+  </si>
+  <si>
+    <t>InvalidShippers_TC007(3)</t>
+  </si>
+  <si>
+    <t>Shipper Name is required</t>
+  </si>
+  <si>
+    <t>AddShippers_CarrierUser_TC008</t>
+  </si>
+  <si>
+    <t>Chennai Express LLC</t>
+  </si>
+  <si>
+    <t>Shipper added successfully</t>
   </si>
 </sst>
 </file>
@@ -465,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -509,13 +554,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -524,18 +569,18 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -544,27 +589,167 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -604,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -612,44 +797,114 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -659,9 +914,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,22 +963,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -729,22 +986,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -752,22 +1009,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -775,22 +1032,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -798,22 +1055,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -821,22 +1078,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -844,22 +1101,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -867,22 +1124,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -890,24 +1147,254 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
         <v>10</v>
       </c>
     </row>

--- a/TestData/Shippers.xlsx
+++ b/TestData/Shippers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="50">
   <si>
     <t>NAME</t>
   </si>
@@ -141,9 +141,6 @@
     <t>InvalidShippers_TC007(2)</t>
   </si>
   <si>
-    <t>Carrier is required</t>
-  </si>
-  <si>
     <t>InvalidShippers_TC007(3)</t>
   </si>
   <si>
@@ -157,6 +154,18 @@
   </si>
   <si>
     <t>Shipper added successfully</t>
+  </si>
+  <si>
+    <t>EditShippers_CarrierUser_TC009</t>
+  </si>
+  <si>
+    <t>InActivateShippers_CarrierUser_TC010</t>
+  </si>
+  <si>
+    <t>ActivateShippers_CarrierUser_TC011</t>
+  </si>
+  <si>
+    <t>Billing email must be a valid email</t>
   </si>
 </sst>
 </file>
@@ -510,15 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
@@ -569,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -589,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -649,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -669,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,12 +718,12 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -729,12 +738,12 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -749,7 +758,67 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +964,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -904,6 +973,48 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -914,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,19 +1442,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -1354,19 +1465,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -1377,7 +1488,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1389,12 +1500,219 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
         <v>10</v>
       </c>
     </row>
